--- a/Propane 20KW/Propane 20KW_AVE_MOL_FRAC.xlsx
+++ b/Propane 20KW/Propane 20KW_AVE_MOL_FRAC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Git_Repos\Pool_Fires\Propane 20KW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EVERYTHING YOU NEED\Results\Propane 20KW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{65A6B65C-B44A-496F-BE0C-C42F7D33A471}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19E46047-D30F-4117-AEB8-45DC49A35012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25200" yWindow="-945" windowWidth="16200" windowHeight="10995" xr2:uid="{FA944F9D-D9A8-4F2B-9016-62DD9EC5D459}"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="7500" windowHeight="6000" xr2:uid="{F9DD4B99-FB39-4372-A1D3-A871C3F702A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,7 +490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E0F05CD-6720-4EBC-BE99-9A7C5B0C5477}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01A524D-B512-4567-8CB7-9206C5783B9C}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -502,7 +502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02728C12-0D0C-4F1A-ABE1-B320ED70B597}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{223935D6-C3D0-43C5-B53A-49C44F4AC4A8}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -514,7 +514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B751E781-CDB9-4857-9E97-6C7A061B38DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A32C3B02-8DA4-471C-B600-E2D9C1A40EA5}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -526,7 +526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05246A9-D8C5-4AC3-A06A-6AD405601B8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6624DB-8C89-46B9-8F77-95166C9BB29C}">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -610,55 +610,55 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>6.076507153673439E-2</v>
+        <v>6.0788565831598959E-2</v>
       </c>
       <c r="C2">
-        <v>2.3414459257181067E-2</v>
+        <v>2.3423512257465098E-2</v>
       </c>
       <c r="D2">
-        <v>7.0559759939883393E-2</v>
+        <v>7.0588560894890268E-2</v>
       </c>
       <c r="E2">
-        <v>7.9309908947469646E-3</v>
+        <v>7.9340573445007036E-3</v>
       </c>
       <c r="F2">
-        <v>1.4246032277312724E-2</v>
+        <v>1.4251540383770989E-2</v>
       </c>
       <c r="G2">
-        <v>7.1497322077563333E-2</v>
+        <v>7.1524965905249677E-2</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.68605619441844934</v>
+        <v>0.68632145217455198</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.576775035973083E-3</v>
+        <v>7.57970453119651E-3</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>3.3463510673131143E-2</v>
+        <v>3.3476449053142426E-2</v>
       </c>
       <c r="N2">
-        <v>8.9576492550261632E-3</v>
+        <v>8.9611126534484536E-3</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>2.052534824603685E-4</v>
+        <v>2.7197439491109506E-4</v>
       </c>
       <c r="Q2">
-        <v>6.2113633937548626E-4</v>
+        <v>6.213764964252415E-4</v>
       </c>
       <c r="R2">
-        <v>1.0322408974779871E-2</v>
+        <v>1.0326400045867792E-2</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -666,55 +666,55 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>6.044139572716177E-2</v>
+        <v>6.0466119492053771E-2</v>
       </c>
       <c r="C3">
-        <v>2.3237787625942849E-2</v>
+        <v>2.3247293124466845E-2</v>
       </c>
       <c r="D3">
-        <v>9.9200606590844703E-2</v>
+        <v>9.924279266011149E-2</v>
       </c>
       <c r="E3">
-        <v>8.0089291538220277E-3</v>
+        <v>8.012205234379963E-3</v>
       </c>
       <c r="F3">
-        <v>1.3885845016445344E-2</v>
+        <v>1.3891525070047322E-2</v>
       </c>
       <c r="G3">
-        <v>3.0868420541081298E-2</v>
+        <v>3.0881047376760076E-2</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.69536832030587137</v>
+        <v>0.69565276315596913</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.7680880018532782E-3</v>
+        <v>8.7716746190003962E-3</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>3.5128520256146462E-2</v>
+        <v>3.5142889700553979E-2</v>
       </c>
       <c r="N3">
-        <v>9.3178304981757359E-3</v>
+        <v>9.3216419894189273E-3</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>3.3329014593380272E-4</v>
+        <v>3.8242705398356536E-4</v>
       </c>
       <c r="Q3">
-        <v>4.9457874945451762E-4</v>
+        <v>4.947810586264853E-4</v>
       </c>
       <c r="R3">
-        <v>1.0558195557921306E-2</v>
+        <v>1.0562514424842177E-2</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -722,55 +722,55 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>5.9958047611401701E-2</v>
+        <v>5.9984345517209471E-2</v>
       </c>
       <c r="C4">
-        <v>2.5554738645597413E-2</v>
+        <v>2.5565947084441147E-2</v>
       </c>
       <c r="D4">
-        <v>9.3970919661939961E-2</v>
+        <v>9.4013859648154174E-2</v>
       </c>
       <c r="E4">
-        <v>8.1137259421781953E-3</v>
+        <v>8.1172846638023662E-3</v>
       </c>
       <c r="F4">
-        <v>1.4620871744291398E-2</v>
+        <v>1.4627284533287557E-2</v>
       </c>
       <c r="G4">
-        <v>2.2351114634835755E-2</v>
+        <v>2.2360917947831752E-2</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.70592702962433362</v>
+        <v>0.70623665282374903</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.0306241429738508E-3</v>
+        <v>9.0345850208302658E-3</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>3.5379399064517605E-2</v>
+        <v>3.5394916649582428E-2</v>
       </c>
       <c r="N4">
-        <v>9.4071399668667396E-3</v>
+        <v>9.411265986485862E-3</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>4.278139126519084E-4</v>
+        <v>4.4599965265151577E-4</v>
       </c>
       <c r="Q4">
-        <v>4.6146262934722759E-4</v>
+        <v>4.6166502921253093E-4</v>
       </c>
       <c r="R4">
-        <v>1.0410383357952394E-2</v>
+        <v>1.0414949405245063E-2</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -778,55 +778,55 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>6.0280544400245592E-2</v>
+        <v>6.0308098128128353E-2</v>
       </c>
       <c r="C5">
-        <v>1.8891272418257381E-2</v>
+        <v>1.8899907459376357E-2</v>
       </c>
       <c r="D5">
-        <v>9.2233354316604454E-2</v>
+        <v>9.2277309938011989E-2</v>
       </c>
       <c r="E5">
-        <v>8.3593099156122914E-3</v>
+        <v>8.363130885595137E-3</v>
       </c>
       <c r="F5">
-        <v>2.5962642632359062E-2</v>
+        <v>2.5974509937097559E-2</v>
       </c>
       <c r="G5">
-        <v>7.6265144046502665E-3</v>
+        <v>7.6300004199921934E-3</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.72910481068053878</v>
+        <v>0.72943807833349894</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.0996978969455546E-3</v>
+        <v>7.1029431089098607E-3</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>3.0446384318857558E-2</v>
+        <v>3.0460301104063781E-2</v>
       </c>
       <c r="N5">
-        <v>7.3683601987411832E-3</v>
+        <v>7.3717282139752508E-3</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>3.9471975848636489E-4</v>
+        <v>3.9606929243181409E-4</v>
       </c>
       <c r="Q5">
-        <v>2.841185356524172E-4</v>
+        <v>2.8424840383618565E-4</v>
       </c>
       <c r="R5">
-        <v>7.5598602638547513E-3</v>
+        <v>7.5633158121517028E-3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -834,55 +834,55 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>5.5825227999440868E-2</v>
+        <v>5.5853380021335046E-2</v>
       </c>
       <c r="C6">
-        <v>1.3220569647383419E-2</v>
+        <v>1.3227236628952565E-2</v>
       </c>
       <c r="D6">
-        <v>9.1404398885951754E-2</v>
+        <v>9.1452475142082296E-2</v>
       </c>
       <c r="E6">
-        <v>8.4366461595346831E-3</v>
+        <v>8.4409006633837207E-3</v>
       </c>
       <c r="F6">
-        <v>4.5679876527514707E-2</v>
+        <v>4.5702912365077696E-2</v>
       </c>
       <c r="G6">
-        <v>2.5643037303024951E-3</v>
+        <v>2.5655968792486902E-3</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.73917872221553993</v>
+        <v>0.73955148156318951</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>4.9810404455317338E-3</v>
+        <v>4.9835523270717443E-3</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.3664047196486508E-2</v>
+        <v>2.3675980703946338E-2</v>
       </c>
       <c r="N6">
-        <v>5.1639087575601622E-3</v>
+        <v>5.1665128574915351E-3</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>3.2133022351055527E-4</v>
+        <v>2.7697537908057379E-4</v>
       </c>
       <c r="Q6">
-        <v>1.7965990050068098E-4</v>
+        <v>1.7975050092693381E-4</v>
       </c>
       <c r="R6">
-        <v>4.990306591791384E-3</v>
+        <v>4.9928231461426175E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -890,55 +890,55 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>4.8648018817556045E-2</v>
+        <v>4.656581931472141E-2</v>
       </c>
       <c r="C7">
-        <v>7.4198596633556933E-3</v>
+        <v>7.5385786310679529E-3</v>
       </c>
       <c r="D7">
-        <v>4.4991378943068906E-2</v>
+        <v>6.0324881368957209E-2</v>
       </c>
       <c r="E7">
-        <v>8.7403665439564088E-3</v>
+        <v>8.6675596352045747E-3</v>
       </c>
       <c r="F7">
-        <v>8.2164942922239081E-2</v>
+        <v>7.8970526876103023E-2</v>
       </c>
       <c r="G7">
-        <v>5.7417314798559012E-4</v>
+        <v>5.5853034370099584E-4</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.78230260317028011</v>
+        <v>0.77171641426700688</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.2395794644777711E-3</v>
+        <v>2.318246629012801E-3</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.367029244007824E-2</v>
+        <v>1.4450445037105568E-2</v>
       </c>
       <c r="N7">
-        <v>2.7040046988635381E-3</v>
+        <v>2.6729105575547885E-3</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1.2785878066801914E-4</v>
+        <v>1.5938985335029501E-4</v>
       </c>
       <c r="Q7">
-        <v>6.4658132172827591E-5</v>
+        <v>7.1327023462513023E-5</v>
       </c>
       <c r="R7">
-        <v>1.9773115055415685E-3</v>
+        <v>2.0549496384607842E-3</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -946,19 +946,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>2.4705151274890109E-2</v>
+        <v>2.47040461912603E-2</v>
       </c>
       <c r="C8">
-        <v>9.335050916135741E-4</v>
+        <v>9.3346333509147729E-4</v>
       </c>
       <c r="D8">
-        <v>3.0894613384405408E-2</v>
+        <v>3.089305563181213E-2</v>
       </c>
       <c r="E8">
-        <v>8.654708116471406E-3</v>
+        <v>8.6543209835956095E-3</v>
       </c>
       <c r="F8">
-        <v>0.14525411054193624</v>
+        <v>0.14524761319496771</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -967,34 +967,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.78283449209952771</v>
+        <v>0.78279947520882021</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.0054486666357403E-4</v>
+        <v>2.0053589611137134E-4</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.1239895633806999E-3</v>
+        <v>2.123894555417772E-3</v>
       </c>
       <c r="N8">
-        <v>3.3391317914057496E-4</v>
+        <v>3.338982429038386E-4</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>1.7918130670399536E-5</v>
+        <v>6.2648228314307036E-5</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>1.1668880187138902E-4</v>
+        <v>1.1668358227636217E-4</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1002,19 +1002,19 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>1.479128321337703E-2</v>
+        <v>1.4791283213377065E-2</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.3414774277431946E-2</v>
+        <v>1.3414774277431974E-2</v>
       </c>
       <c r="E9">
-        <v>8.7513742804482281E-3</v>
+        <v>8.7513742804482559E-3</v>
       </c>
       <c r="F9">
-        <v>0.17346167554996805</v>
+        <v>0.1734616755499675</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.78538730620238306</v>
+        <v>0.78538730620238362</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.6444828974946952E-4</v>
+        <v>1.6444828974946965E-4</v>
       </c>
       <c r="N9">
-        <v>9.8780221459238954E-5</v>
+        <v>9.878022145923913E-5</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>9.754981757756933E-3</v>
+        <v>9.7549817577569555E-3</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.7297342570259104E-3</v>
+        <v>7.7297342570259294E-3</v>
       </c>
       <c r="E10">
-        <v>8.7083545865368206E-3</v>
+        <v>8.7083545865368484E-3</v>
       </c>
       <c r="F10">
-        <v>0.18542511069005677</v>
+        <v>0.18542511069005618</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.78442598379049511</v>
+        <v>0.78442598379049566</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.5905007165918402E-5</v>
+        <v>2.5905007165918419E-5</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1115,7 +1115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321B83DE-ECD3-4330-94BB-5901BEB7CC9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3D51AA-1AB6-488D-8164-F1CE2BAD19E9}">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1202,55 +1202,55 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.0184154344353517E-2</v>
+        <v>1.0189237478132556E-2</v>
       </c>
       <c r="C2">
-        <v>7.6802067744460214E-3</v>
+        <v>7.6834018051067585E-3</v>
       </c>
       <c r="D2">
-        <v>4.626095409311079E-2</v>
+        <v>4.6279218011758411E-2</v>
       </c>
       <c r="E2">
-        <v>7.3569864471907773E-4</v>
+        <v>7.3625319246579143E-4</v>
       </c>
       <c r="F2">
-        <v>2.8301323580788508E-3</v>
+        <v>2.8314531768653555E-3</v>
       </c>
       <c r="G2">
-        <v>2.2773805744973299E-2</v>
+        <v>2.2783320261006303E-2</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>4.2251499112041402E-2</v>
+        <v>4.2303018845369245E-2</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.6310613643562479E-3</v>
+        <v>1.6318032059191385E-3</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>4.816099287809723E-3</v>
+        <v>4.818696002694349E-3</v>
       </c>
       <c r="N2">
-        <v>2.9844978368027859E-3</v>
+        <v>2.9857367154764898E-3</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>2.727535999851112E-5</v>
+        <v>7.8338905782315575E-5</v>
       </c>
       <c r="Q2">
-        <v>7.9701479605825772E-5</v>
+        <v>7.97475890749434E-5</v>
       </c>
       <c r="R2">
-        <v>2.6898948634821829E-3</v>
+        <v>2.6910600466714301E-3</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
@@ -1258,55 +1258,55 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>6.6195105435094661E-3</v>
+        <v>6.6223330696864894E-3</v>
       </c>
       <c r="C3">
-        <v>2.0939766046763702E-3</v>
+        <v>2.0948867927002702E-3</v>
       </c>
       <c r="D3">
-        <v>7.8973993234971604E-2</v>
+        <v>7.9006324926415045E-2</v>
       </c>
       <c r="E3">
-        <v>8.2809867966045854E-4</v>
+        <v>8.2845352781352969E-4</v>
       </c>
       <c r="F3">
-        <v>1.1016848395311812E-3</v>
+        <v>1.1021718919079818E-3</v>
       </c>
       <c r="G3">
-        <v>3.7944857325468914E-3</v>
+        <v>3.7960901133501576E-3</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.3934595323463813E-2</v>
+        <v>5.3958522239800612E-2</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.0091642069142726E-4</v>
+        <v>8.0126400431984547E-4</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.9815501756522982E-3</v>
+        <v>2.9828558775370022E-3</v>
       </c>
       <c r="N3">
-        <v>1.0949127929711399E-3</v>
+        <v>1.0953771646526615E-3</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>4.726505877356333E-5</v>
+        <v>4.5262887701233072E-5</v>
       </c>
       <c r="Q3">
-        <v>4.1282262500472133E-5</v>
+        <v>4.130038161772144E-5</v>
       </c>
       <c r="R3">
-        <v>9.80858598001653E-4</v>
+        <v>9.8128346128375133E-4</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
@@ -1314,55 +1314,55 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>6.0637886371019238E-3</v>
+        <v>6.0670450055308658E-3</v>
       </c>
       <c r="C4">
-        <v>9.3250525687308666E-3</v>
+        <v>9.3292130796631036E-3</v>
       </c>
       <c r="D4">
-        <v>5.2378190143893909E-2</v>
+        <v>5.2401346215238197E-2</v>
       </c>
       <c r="E4">
-        <v>7.5436241451111365E-4</v>
+        <v>7.5478112435022602E-4</v>
       </c>
       <c r="F4">
-        <v>1.9883581318452859E-2</v>
+        <v>1.9892313181093354E-2</v>
       </c>
       <c r="G4">
-        <v>1.7909427788429036E-2</v>
+        <v>1.7917311034198694E-2</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>5.2308484346620464E-2</v>
+        <v>5.2341016211402303E-2</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>3.1026992213593414E-3</v>
+        <v>3.1040865395046842E-3</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>8.407796552082401E-3</v>
+        <v>8.4116341142678498E-3</v>
       </c>
       <c r="N4">
-        <v>2.3479834790030392E-3</v>
+        <v>2.3490512556129236E-3</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>5.2278577768235886E-5</v>
+        <v>4.6916501711724428E-5</v>
       </c>
       <c r="Q4">
-        <v>2.0350579434161463E-4</v>
+        <v>2.0359610635375789E-4</v>
       </c>
       <c r="R4">
-        <v>3.5020192412300111E-3</v>
+        <v>3.5035863965371715E-3</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
@@ -1370,55 +1370,55 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.2583868585419431E-3</v>
+        <v>2.2628816379720246E-3</v>
       </c>
       <c r="C5">
-        <v>6.5237998873240747E-3</v>
+        <v>6.526899671408311E-3</v>
       </c>
       <c r="D5">
-        <v>3.8570522140358977E-2</v>
+        <v>3.858866664843353E-2</v>
       </c>
       <c r="E5">
-        <v>6.5383566920433058E-4</v>
+        <v>6.54364655494356E-4</v>
       </c>
       <c r="F5">
-        <v>2.3530529279806187E-2</v>
+        <v>2.3541346578327106E-2</v>
       </c>
       <c r="G5">
-        <v>4.7078912328450901E-3</v>
+        <v>4.7100697767975966E-3</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.1396283806585101E-2</v>
+        <v>3.1447077854752058E-2</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.8319930092545794E-3</v>
+        <v>2.8333258203157661E-3</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>9.3554645816433593E-3</v>
+        <v>9.3599542716997029E-3</v>
       </c>
       <c r="N5">
-        <v>2.1503371124960485E-3</v>
+        <v>2.1513743878770323E-3</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>4.7804641732938495E-5</v>
+        <v>1.6513371978847994E-4</v>
       </c>
       <c r="Q5">
-        <v>1.0107076853238177E-4</v>
+        <v>1.0111868715340531E-4</v>
       </c>
       <c r="R5">
-        <v>2.7986785679395688E-3</v>
+        <v>2.8000017983630591E-3</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
@@ -1426,55 +1426,55 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>1.5896417582321172E-3</v>
+        <v>1.5927087723256741E-3</v>
       </c>
       <c r="C6">
-        <v>7.7895055233263618E-3</v>
+        <v>7.7934596279992168E-3</v>
       </c>
       <c r="D6">
-        <v>1.8151559462103315E-2</v>
+        <v>1.8161287187964198E-2</v>
       </c>
       <c r="E6">
-        <v>6.1070783778169606E-4</v>
+        <v>6.1115056608815116E-4</v>
       </c>
       <c r="F6">
-        <v>2.4973081900581475E-2</v>
+        <v>2.4985772158679108E-2</v>
       </c>
       <c r="G6">
-        <v>5.1302532574179624E-3</v>
+        <v>5.1328418674019046E-3</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.7513288822792156E-2</v>
+        <v>1.75581595578659E-2</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.7765575721447654E-3</v>
+        <v>2.7779680911238758E-3</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>9.9733507242407947E-3</v>
+        <v>9.9784450972600757E-3</v>
       </c>
       <c r="N6">
-        <v>2.5145465320338743E-3</v>
+        <v>2.5158268516398854E-3</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>3.8901975093895784E-5</v>
+        <v>1.3202159498149416E-4</v>
       </c>
       <c r="Q6">
-        <v>1.3032699043626881E-4</v>
+        <v>1.3039299923031642E-4</v>
       </c>
       <c r="R6">
-        <v>2.9756468167596423E-3</v>
+        <v>2.9771570787356424E-3</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -1482,55 +1482,55 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>4.7037169510315427E-3</v>
+        <v>1.1075865301244589E-3</v>
       </c>
       <c r="C7">
-        <v>3.7852334354581638E-4</v>
+        <v>3.5871089922422084E-4</v>
       </c>
       <c r="D7">
-        <v>2.7432537688573563E-2</v>
+        <v>1.2194147383079551E-2</v>
       </c>
       <c r="E7">
-        <v>6.7864602926542383E-4</v>
+        <v>6.1339221753897461E-4</v>
       </c>
       <c r="F7">
-        <v>7.6436706661612234E-3</v>
+        <v>1.6638447233416869E-3</v>
       </c>
       <c r="G7">
-        <v>4.4050535057134693E-5</v>
+        <v>2.0003399942373786E-5</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3.5520165885082139E-2</v>
+        <v>1.4197797831338841E-2</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.6221019335746549E-4</v>
+        <v>9.6915833481990758E-5</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.5556161819163916E-3</v>
+        <v>3.3791217266873803E-4</v>
       </c>
       <c r="N7">
-        <v>1.6069278362245416E-4</v>
+        <v>1.2273205467888053E-4</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>1.5413847183333556E-5</v>
+        <v>9.634311807942272E-6</v>
       </c>
       <c r="Q7">
-        <v>1.2702687730798672E-5</v>
+        <v>2.5288324431721449E-6</v>
       </c>
       <c r="R7">
-        <v>1.708863038696495E-4</v>
+        <v>1.1170537736811758E-4</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1538,19 +1538,19 @@
         <v>30</v>
       </c>
       <c r="B8">
-        <v>1.2852757928318377E-3</v>
+        <v>1.2849550632589753E-3</v>
       </c>
       <c r="C8">
-        <v>7.2660558428137145E-5</v>
+        <v>7.2650660425067719E-5</v>
       </c>
       <c r="D8">
-        <v>9.237158020570093E-3</v>
+        <v>9.2366729129979182E-3</v>
       </c>
       <c r="E8">
-        <v>6.5525286080725875E-4</v>
+        <v>6.5516018678846708E-4</v>
       </c>
       <c r="F8">
-        <v>5.0153014452755064E-3</v>
+        <v>5.0127447963681359E-3</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1559,34 +1559,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.4199096035987256E-2</v>
+        <v>1.4174518315702466E-2</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.9612343696836688E-5</v>
+        <v>1.9610329756291101E-5</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>5.7839024947219197E-5</v>
+        <v>5.7793189195853178E-5</v>
       </c>
       <c r="N8">
-        <v>1.5302126918733549E-5</v>
+        <v>1.5297403215377844E-5</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>7.1017768811858524E-6</v>
+        <v>6.4647095546550726E-5</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>5.8535365369345823E-5</v>
+        <v>5.8532618096267414E-5</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1594,19 +1594,19 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>7.1677433173183492E-4</v>
+        <v>7.1677433173183644E-4</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>5.1755719631163197E-3</v>
+        <v>5.1755719631163309E-3</v>
       </c>
       <c r="E9">
-        <v>7.6437879910775676E-4</v>
+        <v>7.6437879910775666E-4</v>
       </c>
       <c r="F9">
-        <v>5.2710833539930902E-3</v>
+        <v>5.2710833539930954E-3</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.8986127190175187E-2</v>
+        <v>1.8986127190175273E-2</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1627,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>4.1941799199249535E-5</v>
+        <v>4.1941799199249582E-5</v>
       </c>
       <c r="N9">
-        <v>4.0457218633479487E-5</v>
+        <v>4.0457218633479575E-5</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -1650,19 +1650,19 @@
         <v>60</v>
       </c>
       <c r="B10">
-        <v>2.0244429063802629E-4</v>
+        <v>2.0244429063802653E-4</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>2.2467472309005282E-3</v>
+        <v>2.2467472309005351E-3</v>
       </c>
       <c r="E10">
-        <v>6.0791250754823418E-4</v>
+        <v>6.0791250754823408E-4</v>
       </c>
       <c r="F10">
-        <v>3.2586787951604276E-3</v>
+        <v>3.2586787951604298E-3</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.1187718472065481E-2</v>
+        <v>1.1187718472065518E-2</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>5.2566061334422419E-7</v>
+        <v>5.2566061334422504E-7</v>
       </c>
       <c r="N10">
         <v>0</v>
